--- a/CashFlow/EA_cashflow.xlsx
+++ b/CashFlow/EA_cashflow.xlsx
@@ -1034,19 +1034,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>26000000.0</v>
+        <v>372000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>19000000.0</v>
+        <v>344000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>54000000.0</v>
+        <v>324000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1000000.0</v>
+        <v>217000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-116000000.0</v>
+        <v>29000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>116000000.0</v>
